--- a/data/trans_dic/P0901-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05427714304749268</v>
+        <v>0.05683719679928058</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04006711410464071</v>
+        <v>0.04018328588390718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06875264060139517</v>
+        <v>0.07040111218438036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06075701048527737</v>
+        <v>0.06035456626258886</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09265953797836347</v>
+        <v>0.09432942217280445</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08170121979932489</v>
+        <v>0.08507844692936775</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08987576922566347</v>
+        <v>0.08978690427046246</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1073273607738328</v>
+        <v>0.1045106010283231</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07783276577089555</v>
+        <v>0.0771042293292722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06695571767433973</v>
+        <v>0.06584500375167372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08816899896588601</v>
+        <v>0.0869070231517555</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08669161107795373</v>
+        <v>0.08869921242514593</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1071617678971998</v>
+        <v>0.1089263915579899</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08809631173326009</v>
+        <v>0.08690812242687182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1291561973743516</v>
+        <v>0.134286885135387</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1084913047466007</v>
+        <v>0.1078020464724443</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1703522767151197</v>
+        <v>0.1742677842044582</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1606360435181607</v>
+        <v>0.1652116576099947</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1662320347003881</v>
+        <v>0.1712193154825001</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1638298197241702</v>
+        <v>0.1582010702560904</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1215276417343178</v>
+        <v>0.1220676598507829</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1100618746550279</v>
+        <v>0.1083785200771969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.136815829351959</v>
+        <v>0.135733882844686</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1209993380353311</v>
+        <v>0.1221475729837682</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03172678761266712</v>
+        <v>0.03162298943460434</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08924179159623294</v>
+        <v>0.08603544094580061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04538485882959618</v>
+        <v>0.04416745557552642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07855817936693189</v>
+        <v>0.07582723339920316</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07220124838328307</v>
+        <v>0.07132053670183496</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08755656078819764</v>
+        <v>0.08554220314972</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08122981401096324</v>
+        <v>0.08074697135817793</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1239104113609157</v>
+        <v>0.1252361113616835</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0570284119583245</v>
+        <v>0.05790809038969971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0963233478885646</v>
+        <v>0.0957429491274855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06995961982639343</v>
+        <v>0.07011190338762754</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1055990080989919</v>
+        <v>0.104907054637158</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08248422557557389</v>
+        <v>0.07952932948919023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1569264802862172</v>
+        <v>0.1550050399875565</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09869376702827201</v>
+        <v>0.09597120840990528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1292440437646505</v>
+        <v>0.1309947154867337</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1346516953356412</v>
+        <v>0.1334659618943947</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1598618463319273</v>
+        <v>0.1643389850850227</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.156514602855462</v>
+        <v>0.149578658856988</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1800239245302907</v>
+        <v>0.1818369529783634</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09566318112664469</v>
+        <v>0.09600672864001507</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1447996263105295</v>
+        <v>0.1489577205826851</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1146408137680513</v>
+        <v>0.112612306664426</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.144920420734929</v>
+        <v>0.1452644667557272</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1024998169992819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.151974742108776</v>
+        <v>0.1519747421087759</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2183865479727589</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07423950827478133</v>
+        <v>0.0752969502959288</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1135708916609877</v>
+        <v>0.1149169039033273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07691797959078198</v>
+        <v>0.07848024423720712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1190649983105486</v>
+        <v>0.1202592034267358</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1537055514605823</v>
+        <v>0.1615122960255356</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1596892043392887</v>
+        <v>0.157262160290031</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.161282229639158</v>
+        <v>0.1610809649695751</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2001453394979554</v>
+        <v>0.1978593821937605</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1019341719546304</v>
+        <v>0.1025662601241208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1363803550574567</v>
+        <v>0.1389608345712857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1076345297446988</v>
+        <v>0.1067276748280176</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1540684670147584</v>
+        <v>0.1512131483244433</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1231003426935532</v>
+        <v>0.1242793692352389</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1749946067768451</v>
+        <v>0.176746923050313</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1289493631865218</v>
+        <v>0.1303082569257581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1840287154463647</v>
+        <v>0.1883977535227802</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2845342694041307</v>
+        <v>0.2888439237647414</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2673749148279892</v>
+        <v>0.2611575824957519</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2975648270654751</v>
+        <v>0.2918916922771557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3142793391242186</v>
+        <v>0.3030485671681641</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1533404015950525</v>
+        <v>0.1527986348425286</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1910726319152285</v>
+        <v>0.1911192129434837</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1586235146689413</v>
+        <v>0.1595626352161792</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2088562060095159</v>
+        <v>0.2073673341537225</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09347206745748818</v>
+        <v>0.09273584193219848</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1202554350087415</v>
+        <v>0.1214156408705573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1009775114693839</v>
+        <v>0.1000266467297659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.151800108250735</v>
+        <v>0.1534682372274099</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1226185206020785</v>
+        <v>0.1214566071802973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1307863521444157</v>
+        <v>0.13337355778091</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1241012280221199</v>
+        <v>0.1239244972201907</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1543035121369057</v>
+        <v>0.1534951507144398</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1092992293042428</v>
+        <v>0.1081201530656141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1311181440612005</v>
+        <v>0.1313148459488389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1152636989439972</v>
+        <v>0.1149675087938487</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1595654841425314</v>
+        <v>0.1574179490795393</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1288723563159462</v>
+        <v>0.1264067199124421</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1632938824460592</v>
+        <v>0.1627628692043872</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1392591833925415</v>
+        <v>0.1381107070985024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1972926405125685</v>
+        <v>0.1979145189152126</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1749824760514836</v>
+        <v>0.1757503996739355</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1845101704961495</v>
+        <v>0.1905191781531233</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1774223345030613</v>
+        <v>0.1803144127897792</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1980002623551595</v>
+        <v>0.196985374172533</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1382434663089137</v>
+        <v>0.1375179022123046</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1647247813237651</v>
+        <v>0.1633343144947426</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1485994158631791</v>
+        <v>0.1481352540258766</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1920432490795421</v>
+        <v>0.1899435230487962</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08135503398524392</v>
+        <v>0.08516903826391205</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1076107726707572</v>
+        <v>0.1072578903372543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1203141359814589</v>
+        <v>0.122202632683138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1453575276016003</v>
+        <v>0.1431071623866966</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1258938830356771</v>
+        <v>0.1290112934780505</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2483103739269208</v>
+        <v>0.2491926793596975</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2128799342780491</v>
+        <v>0.2183650603126733</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2465671026748685</v>
+        <v>0.2450834990944562</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1183644626665341</v>
+        <v>0.1185589693480881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1993824635572556</v>
+        <v>0.1997823114142879</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1796532887181732</v>
+        <v>0.1818591903225828</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2108753179436182</v>
+        <v>0.212634452623314</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1493962518937861</v>
+        <v>0.1546805629278768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1687948941067447</v>
+        <v>0.1657015793870584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.176257040846161</v>
+        <v>0.177211948727917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2090104342853187</v>
+        <v>0.2056192419728556</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.189293482822131</v>
+        <v>0.1895813262004818</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3165498426945813</v>
+        <v>0.312650878659949</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2805799824214703</v>
+        <v>0.2827143893781297</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2970892261242829</v>
+        <v>0.2952566247135606</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1649183142292314</v>
+        <v>0.163385234022611</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2472302447537874</v>
+        <v>0.2462133318370169</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2244358326226762</v>
+        <v>0.2268844825717405</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2519144976783354</v>
+        <v>0.2521125477293411</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0162032755404951</v>
+        <v>0.01711414949815069</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02641408335885043</v>
+        <v>0.02434820368130003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01265803411412098</v>
+        <v>0.01233777941921065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01003550161984455</v>
+        <v>0.01103295455976071</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1735974889357996</v>
+        <v>0.1742347229125589</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.221246928770992</v>
+        <v>0.2202539481692678</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2123849240032231</v>
+        <v>0.2099732295907865</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2218382520906136</v>
+        <v>0.2240167230335131</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1456237159140877</v>
+        <v>0.1456356541101402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1858668137595382</v>
+        <v>0.1873543754122517</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1700313614106297</v>
+        <v>0.1694314317532331</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1790521979560125</v>
+        <v>0.1767969249896584</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05634046470697292</v>
+        <v>0.05506537818832133</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08448173197032785</v>
+        <v>0.08012609191379777</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05849743892642022</v>
+        <v>0.05472015372604747</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04870029396164712</v>
+        <v>0.05173130528046237</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2171267049774854</v>
+        <v>0.220559113623422</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2711880862819619</v>
+        <v>0.2754434513146455</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2671509194965812</v>
+        <v>0.2684202487172028</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2736959326091333</v>
+        <v>0.273888374020829</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1851911069064787</v>
+        <v>0.183001417626321</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2306171601773331</v>
+        <v>0.2319375692478063</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.21677302191692</v>
+        <v>0.218449913942863</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2199878028490811</v>
+        <v>0.2198103333712802</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08120726890319346</v>
+        <v>0.08067741164699173</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1086189751169637</v>
+        <v>0.1089267567981184</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09546713913800245</v>
+        <v>0.09424653685296287</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1253978170416279</v>
+        <v>0.1240583274910781</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1513554203781784</v>
+        <v>0.151818534236418</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.193813523528326</v>
+        <v>0.1943670414356622</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1799856499186003</v>
+        <v>0.1811438998423274</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1972096620414703</v>
+        <v>0.1967738318056702</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1194239176287771</v>
+        <v>0.1196315993977451</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1550934662141703</v>
+        <v>0.1556894582466121</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1415726164981125</v>
+        <v>0.1415388049180428</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1652286029509477</v>
+        <v>0.1648061581310103</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1010076670471363</v>
+        <v>0.1010276921550513</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.132129247287246</v>
+        <v>0.1329290333329045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1169200227501761</v>
+        <v>0.1162411821065538</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1501400168669663</v>
+        <v>0.1476740426588826</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1758369060634419</v>
+        <v>0.1766645423234221</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2220539036074173</v>
+        <v>0.2221896371191278</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2088740766240865</v>
+        <v>0.2088793707290069</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2188348770606542</v>
+        <v>0.2196294917692671</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1347531329039926</v>
+        <v>0.1361426676031841</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1738415267216995</v>
+        <v>0.1740040452896627</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1598574463214507</v>
+        <v>0.1593222831752366</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1813470248717335</v>
+        <v>0.1818983859063867</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25715</v>
+        <v>26928</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17518</v>
+        <v>17569</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29501</v>
+        <v>30209</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33454</v>
+        <v>33232</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28417</v>
+        <v>28929</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25691</v>
+        <v>26753</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31192</v>
+        <v>31161</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>52420</v>
+        <v>51044</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60745</v>
+        <v>60177</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>50328</v>
+        <v>49493</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>68432</v>
+        <v>67453</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>90075</v>
+        <v>92161</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50771</v>
+        <v>51607</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38517</v>
+        <v>37997</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55420</v>
+        <v>57621</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59737</v>
+        <v>59358</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>52244</v>
+        <v>53444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50513</v>
+        <v>51951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>57692</v>
+        <v>59423</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>80016</v>
+        <v>77267</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>94847</v>
+        <v>95269</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>82730</v>
+        <v>81464</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>106189</v>
+        <v>105349</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>125722</v>
+        <v>126915</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11642</v>
+        <v>11604</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37374</v>
+        <v>36031</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17120</v>
+        <v>16661</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37960</v>
+        <v>36641</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26849</v>
+        <v>26522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29595</v>
+        <v>28914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30240</v>
+        <v>30060</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>52432</v>
+        <v>52993</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42133</v>
+        <v>42782</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>72898</v>
+        <v>72459</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>52435</v>
+        <v>52549</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>95710</v>
+        <v>95083</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30266</v>
+        <v>29182</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65720</v>
+        <v>64916</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>37230</v>
+        <v>36203</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62452</v>
+        <v>63298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50072</v>
+        <v>49631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>54035</v>
+        <v>55548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>58266</v>
+        <v>55684</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>76176</v>
+        <v>76943</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>70676</v>
+        <v>70930</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>109586</v>
+        <v>112732</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>85923</v>
+        <v>84403</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>131349</v>
+        <v>131661</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40267</v>
+        <v>40840</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>71483</v>
+        <v>72330</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40145</v>
+        <v>40960</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>56094</v>
+        <v>56656</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25789</v>
+        <v>27099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>41540</v>
+        <v>40908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26793</v>
+        <v>26759</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37527</v>
+        <v>37098</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>72391</v>
+        <v>72840</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>121316</v>
+        <v>123612</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>74056</v>
+        <v>73432</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>101472</v>
+        <v>99591</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>66768</v>
+        <v>67408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>110144</v>
+        <v>111247</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67300</v>
+        <v>68010</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>86699</v>
+        <v>88758</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47740</v>
+        <v>48463</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>69552</v>
+        <v>67935</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49432</v>
+        <v>48490</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58926</v>
+        <v>56821</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>108898</v>
+        <v>108513</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>169968</v>
+        <v>170009</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>109139</v>
+        <v>109785</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>137556</v>
+        <v>136575</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>115750</v>
+        <v>114838</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>139377</v>
+        <v>140722</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>116088</v>
+        <v>114994</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>171725</v>
+        <v>173612</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>87585</v>
+        <v>86755</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>100268</v>
+        <v>102252</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>102492</v>
+        <v>102346</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>132799</v>
+        <v>132103</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>213420</v>
+        <v>211118</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>252490</v>
+        <v>252869</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>227705</v>
+        <v>227120</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>317837</v>
+        <v>313559</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>159587</v>
+        <v>156534</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189259</v>
+        <v>188644</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>160098</v>
+        <v>158777</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>223189</v>
+        <v>223892</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>124987</v>
+        <v>125536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>141456</v>
+        <v>146063</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>146529</v>
+        <v>148917</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>170405</v>
+        <v>169532</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>269937</v>
+        <v>268520</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>317205</v>
+        <v>314527</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>293560</v>
+        <v>292643</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>382529</v>
+        <v>378346</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28519</v>
+        <v>29856</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>54946</v>
+        <v>54765</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>74680</v>
+        <v>75852</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>82397</v>
+        <v>81122</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>71602</v>
+        <v>73375</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>189094</v>
+        <v>189766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>157157</v>
+        <v>161207</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>204587</v>
+        <v>203356</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>108813</v>
+        <v>108992</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>253638</v>
+        <v>254147</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>244140</v>
+        <v>247138</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>294508</v>
+        <v>296965</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52372</v>
+        <v>54224</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>86186</v>
+        <v>84607</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>109404</v>
+        <v>109997</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>118480</v>
+        <v>116557</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107661</v>
+        <v>107825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>241060</v>
+        <v>238091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>207136</v>
+        <v>208712</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>246507</v>
+        <v>244986</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>151611</v>
+        <v>150201</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>314506</v>
+        <v>313212</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>304997</v>
+        <v>308325</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>351824</v>
+        <v>352100</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4832</v>
+        <v>5103</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7049</v>
+        <v>6498</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3635</v>
+        <v>3543</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2381</v>
+        <v>2617</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>216782</v>
+        <v>217577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>245441</v>
+        <v>244339</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>229806</v>
+        <v>227196</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>187294</v>
+        <v>189133</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>225274</v>
+        <v>225293</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>255796</v>
+        <v>257843</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>232802</v>
+        <v>231980</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>193647</v>
+        <v>191207</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16801</v>
+        <v>16421</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22547</v>
+        <v>21384</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16797</v>
+        <v>15713</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11553</v>
+        <v>12272</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>271139</v>
+        <v>275425</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>300843</v>
+        <v>305563</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>289064</v>
+        <v>290437</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>231076</v>
+        <v>231239</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>286483</v>
+        <v>283096</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>317383</v>
+        <v>319200</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>296799</v>
+        <v>299095</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>237919</v>
+        <v>237727</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>265563</v>
+        <v>263830</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>371684</v>
+        <v>372738</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>323225</v>
+        <v>319093</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>431405</v>
+        <v>426797</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>511297</v>
+        <v>512862</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>688062</v>
+        <v>690027</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>635637</v>
+        <v>639727</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>716602</v>
+        <v>715018</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>793968</v>
+        <v>795348</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1081317</v>
+        <v>1085472</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>979303</v>
+        <v>979069</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1168827</v>
+        <v>1165838</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>330314</v>
+        <v>330380</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>452134</v>
+        <v>454871</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>395859</v>
+        <v>393560</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>516526</v>
+        <v>508042</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>593999</v>
+        <v>596795</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>788319</v>
+        <v>788801</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>737659</v>
+        <v>737678</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>795181</v>
+        <v>798069</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>895881</v>
+        <v>905119</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1212029</v>
+        <v>1213162</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1105785</v>
+        <v>1102083</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1282848</v>
+        <v>1286749</v>
       </c>
     </row>
     <row r="32">
